--- a/Poro.xlsx
+++ b/Poro.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="152">
   <si>
     <t>NUMBERS</t>
   </si>
@@ -132,9 +132,6 @@
     <t>二つ</t>
   </si>
   <si>
-    <t>two (things)</t>
-  </si>
-  <si>
     <t>one (thing)</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>三つ</t>
   </si>
   <si>
-    <t>three (things)</t>
-  </si>
-  <si>
     <t>三日</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>10.000 yen</t>
   </si>
   <si>
-    <t>30.000</t>
-  </si>
-  <si>
     <t>四</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>四つ</t>
   </si>
   <si>
-    <t>four (things)</t>
-  </si>
-  <si>
     <t>四日</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>五つ</t>
   </si>
   <si>
-    <t>five (things)</t>
-  </si>
-  <si>
     <t>五日</t>
   </si>
   <si>
@@ -289,23 +274,217 @@
   </si>
   <si>
     <t>5 minutes</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>むっつ</t>
+  </si>
+  <si>
+    <t>コク</t>
+  </si>
+  <si>
+    <t>コッ</t>
+  </si>
+  <si>
+    <t>六つ</t>
+  </si>
+  <si>
+    <t>六日</t>
+  </si>
+  <si>
+    <t>むいか</t>
+  </si>
+  <si>
+    <t>the 6th day</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>ろくがつ</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>ななつ</t>
+  </si>
+  <si>
+    <t>シチ</t>
+  </si>
+  <si>
+    <t>七つ</t>
+  </si>
+  <si>
+    <t>七日</t>
+  </si>
+  <si>
+    <t>なのか</t>
+  </si>
+  <si>
+    <t>the 7th day</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>なながつ</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>七夕</t>
+  </si>
+  <si>
+    <t>たなばた</t>
+  </si>
+  <si>
+    <t>Star festival</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>やっつ</t>
+  </si>
+  <si>
+    <t>ハチ</t>
+  </si>
+  <si>
+    <t>ハッ</t>
+  </si>
+  <si>
+    <t>八つ</t>
+  </si>
+  <si>
+    <t>八日</t>
+  </si>
+  <si>
+    <t>ようか</t>
+  </si>
+  <si>
+    <t>the 8th day</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>はちがつ</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>ここのつ</t>
+  </si>
+  <si>
+    <t>ク</t>
+  </si>
+  <si>
+    <t>キュウ</t>
+  </si>
+  <si>
+    <t>九つ</t>
+  </si>
+  <si>
+    <t>nine (thing)</t>
+  </si>
+  <si>
+    <t>九日</t>
+  </si>
+  <si>
+    <t>ここのか</t>
+  </si>
+  <si>
+    <t>the 9th day</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>くがつ</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>九百</t>
+  </si>
+  <si>
+    <t>きゅうひゃく</t>
+  </si>
+  <si>
+    <t>two (thing)</t>
+  </si>
+  <si>
+    <t>three (thing)</t>
+  </si>
+  <si>
+    <t>four (thing)</t>
+  </si>
+  <si>
+    <t>five (thing)</t>
+  </si>
+  <si>
+    <t>six (thing)</t>
+  </si>
+  <si>
+    <t>seven (thing)</t>
+  </si>
+  <si>
+    <t>eight (thing)</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>とお</t>
+  </si>
+  <si>
+    <t>ジュウ</t>
+  </si>
+  <si>
+    <t>ジュッ</t>
+  </si>
+  <si>
+    <t>ジュ</t>
+  </si>
+  <si>
+    <t>十日</t>
+  </si>
+  <si>
+    <t>とおか</t>
+  </si>
+  <si>
+    <t>the 10th day</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>じゅうがつ</t>
+  </si>
+  <si>
+    <t>October</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,14 +533,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,26 +823,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -670,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -678,12 +859,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -705,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -716,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -738,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -749,7 +930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -757,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -771,7 +952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -782,7 +963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -794,9 +975,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -804,7 +986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -812,7 +994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -820,229 +1002,533 @@
         <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A27" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="E31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="E32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E33" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A36" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="E40" t="s">
         <v>68</v>
       </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="C41" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E41" t="s">
         <v>71</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A44" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A44" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C49" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="E49" t="s">
         <v>81</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C50" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="E50" t="s">
         <v>84</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E49" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>87</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E54" t="s">
         <v>88</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A78" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A87" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Poro.xlsx
+++ b/Poro.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
   <si>
     <t>NUMBERS</t>
   </si>
@@ -475,6 +475,252 @@
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>ち</t>
+  </si>
+  <si>
+    <t>セン</t>
+  </si>
+  <si>
+    <t>ゼン</t>
+  </si>
+  <si>
+    <t>千円</t>
+  </si>
+  <si>
+    <t>せんえん</t>
+  </si>
+  <si>
+    <t>千葉</t>
+  </si>
+  <si>
+    <t>ちば</t>
+  </si>
+  <si>
+    <t>Chiba perf</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>マン</t>
+  </si>
+  <si>
+    <t>パン</t>
+  </si>
+  <si>
+    <t>10,000 yen</t>
+  </si>
+  <si>
+    <t>1.000 yen</t>
+  </si>
+  <si>
+    <t>万国</t>
+  </si>
+  <si>
+    <t>ばんこく</t>
+  </si>
+  <si>
+    <t>All countries</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>もも</t>
+  </si>
+  <si>
+    <t>ヒャク</t>
+  </si>
+  <si>
+    <t>ビャク</t>
+  </si>
+  <si>
+    <t>ひゃく</t>
+  </si>
+  <si>
+    <t>百科事典</t>
+  </si>
+  <si>
+    <t>ひゃっかじてん</t>
+  </si>
+  <si>
+    <t>encyclopedia; encyclopaedia</t>
+  </si>
+  <si>
+    <t>百貨店</t>
+  </si>
+  <si>
+    <t>ひゃっかてん</t>
+  </si>
+  <si>
+    <t>(department) store</t>
+  </si>
+  <si>
+    <t>百姓</t>
+  </si>
+  <si>
+    <t>ひゃくしょう</t>
+  </si>
+  <si>
+    <t>farmer; peasant; country bumpkin</t>
+  </si>
+  <si>
+    <t>百万</t>
+  </si>
+  <si>
+    <t>ひゃくまん</t>
+  </si>
+  <si>
+    <t>1 million</t>
+  </si>
+  <si>
+    <t>百合</t>
+  </si>
+  <si>
+    <t>ゆり</t>
+  </si>
+  <si>
+    <t>lily - flower's name</t>
+  </si>
+  <si>
+    <t>百八十度</t>
+  </si>
+  <si>
+    <t>ひゃくはちじゅうど</t>
+  </si>
+  <si>
+    <t>180 degrees; complete change</t>
+  </si>
+  <si>
+    <t>百悪</t>
+  </si>
+  <si>
+    <t>ひゃくあく</t>
+  </si>
+  <si>
+    <t>ten billion</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>まるい</t>
+  </si>
+  <si>
+    <t>まる</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>まどか</t>
+  </si>
+  <si>
+    <t>まろやか</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>Japanese monetary unit; circle</t>
+  </si>
+  <si>
+    <t>丸</t>
+  </si>
+  <si>
+    <t>circle; whole; full; complete</t>
+  </si>
+  <si>
+    <t>丸い</t>
+  </si>
+  <si>
+    <t>round; circular; spherical; calm</t>
+  </si>
+  <si>
+    <t>円満</t>
+  </si>
+  <si>
+    <t>えんまん</t>
+  </si>
+  <si>
+    <t>harmonious; peaceful; happy; amicable; smooth</t>
+  </si>
+  <si>
+    <t>円滑</t>
+  </si>
+  <si>
+    <t>えんかつ</t>
+  </si>
+  <si>
+    <t>smooth; undisturbed; uninterrupted; harmonious</t>
+  </si>
+  <si>
+    <t>円高</t>
+  </si>
+  <si>
+    <t>えんだか</t>
+  </si>
+  <si>
+    <t>appreciation of the yen; strong yen; strengthening of the yen; high-valued yen; exchange in favor of the yen (favour)</t>
+  </si>
+  <si>
+    <t>円安</t>
+  </si>
+  <si>
+    <t>えんやす</t>
+  </si>
+  <si>
+    <t>cheap yen</t>
+  </si>
+  <si>
+    <t>円形</t>
+  </si>
+  <si>
+    <t>えんけい</t>
+  </si>
+  <si>
+    <t>round shape; circular form</t>
+  </si>
+  <si>
+    <t>円相場</t>
+  </si>
+  <si>
+    <t>えんそうば</t>
+  </si>
+  <si>
+    <t>yen exchange rate</t>
+  </si>
+  <si>
+    <t>円卓</t>
+  </si>
+  <si>
+    <t>えんたく</t>
+  </si>
+  <si>
+    <t>round table</t>
+  </si>
+  <si>
+    <t>円周</t>
+  </si>
+  <si>
+    <t>えんしゅう</t>
+  </si>
+  <si>
+    <t>circumference</t>
+  </si>
+  <si>
+    <t>丸み</t>
+  </si>
+  <si>
+    <t>まるみ</t>
+  </si>
+  <si>
+    <t>roundness; mellowness; maturity</t>
   </si>
 </sst>
 </file>
@@ -533,16 +779,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -834,16 +1081,16 @@
     <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -851,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -975,10 +1222,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -1039,10 +1286,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -1103,10 +1350,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -1162,10 +1409,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -1226,10 +1473,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -1282,10 +1529,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -1346,10 +1593,10 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -1402,10 +1649,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -1469,10 +1716,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -1516,19 +1763,396 @@
         <v>151</v>
       </c>
     </row>
+    <row r="94" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A94" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A102" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="E106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A109" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+      <c r="E110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" t="s">
+        <v>187</v>
+      </c>
+      <c r="E117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A122" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" t="s">
+        <v>197</v>
+      </c>
+      <c r="F122" t="s">
+        <v>198</v>
+      </c>
+      <c r="G122" t="s">
+        <v>199</v>
+      </c>
+      <c r="H122" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" t="s">
+        <v>208</v>
+      </c>
+      <c r="E128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" t="s">
+        <v>211</v>
+      </c>
+      <c r="E129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" t="s">
+        <v>214</v>
+      </c>
+      <c r="E130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" t="s">
+        <v>220</v>
+      </c>
+      <c r="E132" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" t="s">
+        <v>223</v>
+      </c>
+      <c r="E133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" t="s">
+        <v>226</v>
+      </c>
+      <c r="E134" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" t="s">
+        <v>232</v>
+      </c>
+      <c r="E136" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Poro.xlsx
+++ b/Poro.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="356">
   <si>
     <t>NUMBERS</t>
   </si>
@@ -721,6 +721,372 @@
   </si>
   <si>
     <t>roundness; mellowness; maturity</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>シン</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>新車</t>
+  </si>
+  <si>
+    <t>しんしゃ</t>
+  </si>
+  <si>
+    <t>a new car</t>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>しんぶん</t>
+  </si>
+  <si>
+    <t>a newspaper</t>
+  </si>
+  <si>
+    <t>新年</t>
+  </si>
+  <si>
+    <t>しんえん</t>
+  </si>
+  <si>
+    <t>a new year</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>コ</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>中古車</t>
+  </si>
+  <si>
+    <t>ちゅこしゃ</t>
+  </si>
+  <si>
+    <t>a second-hand car</t>
+  </si>
+  <si>
+    <t>古本</t>
+  </si>
+  <si>
+    <t>ふるほん</t>
+  </si>
+  <si>
+    <t>a used book</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>ながい</t>
+  </si>
+  <si>
+    <t>チュウ</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>長野</t>
+  </si>
+  <si>
+    <t>ながの</t>
+  </si>
+  <si>
+    <t>nagano prefacture</t>
+  </si>
+  <si>
+    <t>長男</t>
+  </si>
+  <si>
+    <t>ちょうなん</t>
+  </si>
+  <si>
+    <t>the eldest son</t>
+  </si>
+  <si>
+    <t>学長</t>
+  </si>
+  <si>
+    <t>がくちょう</t>
+  </si>
+  <si>
+    <t>a president</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>タン</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>短時間</t>
+  </si>
+  <si>
+    <t>たんじかん</t>
+  </si>
+  <si>
+    <t>a short time</t>
+  </si>
+  <si>
+    <t>短大</t>
+  </si>
+  <si>
+    <t>たんだい</t>
+  </si>
+  <si>
+    <t>a junior college</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>コウ</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>high; expensive</t>
+  </si>
+  <si>
+    <t>高橋</t>
+  </si>
+  <si>
+    <t>たかはし</t>
+  </si>
+  <si>
+    <t>Japanese name</t>
+  </si>
+  <si>
+    <t>高校</t>
+  </si>
+  <si>
+    <t>こうこう</t>
+  </si>
+  <si>
+    <t>a high school</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>こうそく</t>
+  </si>
+  <si>
+    <t>high-speed</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>アン</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>safe; cheap</t>
+  </si>
+  <si>
+    <t>安心する</t>
+  </si>
+  <si>
+    <t>あんしんする</t>
+  </si>
+  <si>
+    <t>to be relieved</t>
+  </si>
+  <si>
+    <t>安売り</t>
+  </si>
+  <si>
+    <t>やすうる</t>
+  </si>
+  <si>
+    <t>bargain sale</t>
+  </si>
+  <si>
+    <t>安全な</t>
+  </si>
+  <si>
+    <t>あんぜんな</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>テイ</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>低温</t>
+  </si>
+  <si>
+    <t>ていおん</t>
+  </si>
+  <si>
+    <t>a low temperature</t>
+  </si>
+  <si>
+    <t>低下する</t>
+  </si>
+  <si>
+    <t>ていかする</t>
+  </si>
+  <si>
+    <t>to fall; to go down</t>
+  </si>
+  <si>
+    <t>暗</t>
+  </si>
+  <si>
+    <t>くらい</t>
+  </si>
+  <si>
+    <t>Onymi</t>
+  </si>
+  <si>
+    <t>暗い</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>暗室</t>
+  </si>
+  <si>
+    <t>あんしつ</t>
+  </si>
+  <si>
+    <t>a dark room</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>タ</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>many; much</t>
+  </si>
+  <si>
+    <t>多数</t>
+  </si>
+  <si>
+    <t>たすう</t>
+  </si>
+  <si>
+    <t>a large number</t>
+  </si>
+  <si>
+    <t>多少</t>
+  </si>
+  <si>
+    <t>たしょう</t>
+  </si>
+  <si>
+    <t>more / less</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>すくない</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>ショウ</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>few; little</t>
+  </si>
+  <si>
+    <t>少年</t>
+  </si>
+  <si>
+    <t>しょうねん</t>
+  </si>
+  <si>
+    <t>a boy</t>
+  </si>
+  <si>
+    <t>少し</t>
+  </si>
+  <si>
+    <t>a little; a few</t>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>しょうじょ</t>
+  </si>
+  <si>
+    <t>a girl</t>
   </si>
 </sst>
 </file>
@@ -783,13 +1149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:B122"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1081,16 +1447,16 @@
     <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1222,10 +1588,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -1286,10 +1652,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -1350,10 +1716,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -1409,10 +1775,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="4"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -1473,10 +1839,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="4"/>
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -1529,10 +1895,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="4"/>
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -1593,10 +1959,10 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="4"/>
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -1649,10 +2015,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="4"/>
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -1716,10 +2082,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="4"/>
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -1764,10 +2130,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="4"/>
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +2170,7 @@
       <c r="C98" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="3">
         <v>3000</v>
       </c>
     </row>
@@ -1820,10 +2186,10 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="4"/>
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -1862,10 +2228,10 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="4"/>
       <c r="C109" t="s">
         <v>2</v>
       </c>
@@ -1973,10 +2339,10 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="3"/>
+      <c r="B122" s="4"/>
       <c r="C122" t="s">
         <v>2</v>
       </c>
@@ -2136,8 +2502,606 @@
         <v>233</v>
       </c>
     </row>
+    <row r="139" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A139" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C142" t="s">
+        <v>235</v>
+      </c>
+      <c r="E142" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" t="s">
+        <v>240</v>
+      </c>
+      <c r="E143" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C144" t="s">
+        <v>243</v>
+      </c>
+      <c r="E144" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C145" t="s">
+        <v>246</v>
+      </c>
+      <c r="E145" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A148" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C151" t="s">
+        <v>249</v>
+      </c>
+      <c r="E151" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" t="s">
+        <v>254</v>
+      </c>
+      <c r="E152" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C153" t="s">
+        <v>257</v>
+      </c>
+      <c r="E153" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A156" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C159" t="s">
+        <v>261</v>
+      </c>
+      <c r="E159" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C161" t="s">
+        <v>269</v>
+      </c>
+      <c r="E161" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C162" t="s">
+        <v>272</v>
+      </c>
+      <c r="E162" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A165" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C168" t="s">
+        <v>275</v>
+      </c>
+      <c r="E168" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C169" t="s">
+        <v>280</v>
+      </c>
+      <c r="E169" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C170" t="s">
+        <v>283</v>
+      </c>
+      <c r="E170" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A173" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C176" t="s">
+        <v>285</v>
+      </c>
+      <c r="E176" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C177" t="s">
+        <v>290</v>
+      </c>
+      <c r="E177" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" t="s">
+        <v>293</v>
+      </c>
+      <c r="E178" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C179" t="s">
+        <v>296</v>
+      </c>
+      <c r="E179" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A182" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C185" t="s">
+        <v>299</v>
+      </c>
+      <c r="E185" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C186" t="s">
+        <v>304</v>
+      </c>
+      <c r="E186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C187" t="s">
+        <v>307</v>
+      </c>
+      <c r="E187" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C188" t="s">
+        <v>310</v>
+      </c>
+      <c r="E188" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A191" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C194" t="s">
+        <v>313</v>
+      </c>
+      <c r="E194" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C195" t="s">
+        <v>318</v>
+      </c>
+      <c r="E195" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C196" t="s">
+        <v>321</v>
+      </c>
+      <c r="E196" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A199" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
+        <v>325</v>
+      </c>
+      <c r="D200" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C202" t="s">
+        <v>324</v>
+      </c>
+      <c r="E202" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C203" t="s">
+        <v>329</v>
+      </c>
+      <c r="E203" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A206" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C209" t="s">
+        <v>332</v>
+      </c>
+      <c r="D209" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" t="s">
+        <v>337</v>
+      </c>
+      <c r="D210" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C211" t="s">
+        <v>340</v>
+      </c>
+      <c r="D211" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A214" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>343</v>
+      </c>
+      <c r="F214" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C217" t="s">
+        <v>343</v>
+      </c>
+      <c r="E217" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C218" t="s">
+        <v>349</v>
+      </c>
+      <c r="E218" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C219" t="s">
+        <v>344</v>
+      </c>
+      <c r="E219" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C220" t="s">
+        <v>354</v>
+      </c>
+      <c r="E220" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C221" t="s">
+        <v>340</v>
+      </c>
+      <c r="E221" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="25">
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A173:B173"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A109:B109"/>

--- a/Poro.xlsx
+++ b/Poro.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="N5-Kanji" sheetId="1" r:id="rId1"/>
+    <sheet name="N4-Kanji" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="526">
   <si>
     <t>NUMBERS</t>
   </si>
@@ -576,524 +577,1034 @@
     <t>ひゃくまん</t>
   </si>
   <si>
+    <t>百合</t>
+  </si>
+  <si>
+    <t>ゆり</t>
+  </si>
+  <si>
+    <t>lily - flower's name</t>
+  </si>
+  <si>
+    <t>百八十度</t>
+  </si>
+  <si>
+    <t>ひゃくはちじゅうど</t>
+  </si>
+  <si>
+    <t>180 degrees; complete change</t>
+  </si>
+  <si>
+    <t>百悪</t>
+  </si>
+  <si>
+    <t>ひゃくあく</t>
+  </si>
+  <si>
+    <t>ten billion</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>まるい</t>
+  </si>
+  <si>
+    <t>まる</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>まどか</t>
+  </si>
+  <si>
+    <t>まろやか</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>Japanese monetary unit; circle</t>
+  </si>
+  <si>
+    <t>丸</t>
+  </si>
+  <si>
+    <t>circle; whole; full; complete</t>
+  </si>
+  <si>
+    <t>丸い</t>
+  </si>
+  <si>
+    <t>round; circular; spherical; calm</t>
+  </si>
+  <si>
+    <t>円満</t>
+  </si>
+  <si>
+    <t>えんまん</t>
+  </si>
+  <si>
+    <t>harmonious; peaceful; happy; amicable; smooth</t>
+  </si>
+  <si>
+    <t>円滑</t>
+  </si>
+  <si>
+    <t>えんかつ</t>
+  </si>
+  <si>
+    <t>smooth; undisturbed; uninterrupted; harmonious</t>
+  </si>
+  <si>
+    <t>円高</t>
+  </si>
+  <si>
+    <t>えんだか</t>
+  </si>
+  <si>
+    <t>appreciation of the yen; strong yen; strengthening of the yen; high-valued yen; exchange in favor of the yen (favour)</t>
+  </si>
+  <si>
+    <t>円安</t>
+  </si>
+  <si>
+    <t>えんやす</t>
+  </si>
+  <si>
+    <t>cheap yen</t>
+  </si>
+  <si>
+    <t>円形</t>
+  </si>
+  <si>
+    <t>えんけい</t>
+  </si>
+  <si>
+    <t>round shape; circular form</t>
+  </si>
+  <si>
+    <t>円相場</t>
+  </si>
+  <si>
+    <t>えんそうば</t>
+  </si>
+  <si>
+    <t>yen exchange rate</t>
+  </si>
+  <si>
+    <t>円卓</t>
+  </si>
+  <si>
+    <t>えんたく</t>
+  </si>
+  <si>
+    <t>round table</t>
+  </si>
+  <si>
+    <t>円周</t>
+  </si>
+  <si>
+    <t>えんしゅう</t>
+  </si>
+  <si>
+    <t>circumference</t>
+  </si>
+  <si>
+    <t>丸み</t>
+  </si>
+  <si>
+    <t>まるみ</t>
+  </si>
+  <si>
+    <t>roundness; mellowness; maturity</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>シン</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>新車</t>
+  </si>
+  <si>
+    <t>しんしゃ</t>
+  </si>
+  <si>
+    <t>a new car</t>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>しんぶん</t>
+  </si>
+  <si>
+    <t>a newspaper</t>
+  </si>
+  <si>
+    <t>新年</t>
+  </si>
+  <si>
+    <t>しんえん</t>
+  </si>
+  <si>
+    <t>a new year</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>コ</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>中古車</t>
+  </si>
+  <si>
+    <t>ちゅこしゃ</t>
+  </si>
+  <si>
+    <t>a second-hand car</t>
+  </si>
+  <si>
+    <t>古本</t>
+  </si>
+  <si>
+    <t>ふるほん</t>
+  </si>
+  <si>
+    <t>a used book</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>ながい</t>
+  </si>
+  <si>
+    <t>チュウ</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>長野</t>
+  </si>
+  <si>
+    <t>ながの</t>
+  </si>
+  <si>
+    <t>nagano prefacture</t>
+  </si>
+  <si>
+    <t>長男</t>
+  </si>
+  <si>
+    <t>ちょうなん</t>
+  </si>
+  <si>
+    <t>the eldest son</t>
+  </si>
+  <si>
+    <t>学長</t>
+  </si>
+  <si>
+    <t>がくちょう</t>
+  </si>
+  <si>
+    <t>a president</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>タン</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>短時間</t>
+  </si>
+  <si>
+    <t>たんじかん</t>
+  </si>
+  <si>
+    <t>a short time</t>
+  </si>
+  <si>
+    <t>短大</t>
+  </si>
+  <si>
+    <t>たんだい</t>
+  </si>
+  <si>
+    <t>a junior college</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>コウ</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>high; expensive</t>
+  </si>
+  <si>
+    <t>高橋</t>
+  </si>
+  <si>
+    <t>たかはし</t>
+  </si>
+  <si>
+    <t>Japanese name</t>
+  </si>
+  <si>
+    <t>高校</t>
+  </si>
+  <si>
+    <t>こうこう</t>
+  </si>
+  <si>
+    <t>a high school</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>こうそく</t>
+  </si>
+  <si>
+    <t>high-speed</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>アン</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>safe; cheap</t>
+  </si>
+  <si>
+    <t>安心する</t>
+  </si>
+  <si>
+    <t>あんしんする</t>
+  </si>
+  <si>
+    <t>to be relieved</t>
+  </si>
+  <si>
+    <t>安売り</t>
+  </si>
+  <si>
+    <t>やすうる</t>
+  </si>
+  <si>
+    <t>bargain sale</t>
+  </si>
+  <si>
+    <t>安全な</t>
+  </si>
+  <si>
+    <t>あんぜんな</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>テイ</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>低温</t>
+  </si>
+  <si>
+    <t>ていおん</t>
+  </si>
+  <si>
+    <t>a low temperature</t>
+  </si>
+  <si>
+    <t>低下する</t>
+  </si>
+  <si>
+    <t>ていかする</t>
+  </si>
+  <si>
+    <t>to fall; to go down</t>
+  </si>
+  <si>
+    <t>暗</t>
+  </si>
+  <si>
+    <t>くらい</t>
+  </si>
+  <si>
+    <t>Onymi</t>
+  </si>
+  <si>
+    <t>暗い</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>暗室</t>
+  </si>
+  <si>
+    <t>あんしつ</t>
+  </si>
+  <si>
+    <t>a dark room</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>タ</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>many; much</t>
+  </si>
+  <si>
+    <t>多数</t>
+  </si>
+  <si>
+    <t>たすう</t>
+  </si>
+  <si>
+    <t>a large number</t>
+  </si>
+  <si>
+    <t>多少</t>
+  </si>
+  <si>
+    <t>たしょう</t>
+  </si>
+  <si>
+    <t>more / less</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>すくない</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>ショウ</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>few; little</t>
+  </si>
+  <si>
+    <t>少年</t>
+  </si>
+  <si>
+    <t>しょうねん</t>
+  </si>
+  <si>
+    <t>a boy</t>
+  </si>
+  <si>
+    <t>少し</t>
+  </si>
+  <si>
+    <t>a little; a few</t>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>しょうじょ</t>
+  </si>
+  <si>
+    <t>a girl</t>
+  </si>
+  <si>
+    <t>Adjective</t>
+  </si>
+  <si>
     <t>1 million</t>
   </si>
   <si>
-    <t>百合</t>
-  </si>
-  <si>
-    <t>ゆり</t>
-  </si>
-  <si>
-    <t>lily - flower's name</t>
-  </si>
-  <si>
-    <t>百八十度</t>
-  </si>
-  <si>
-    <t>ひゃくはちじゅうど</t>
-  </si>
-  <si>
-    <t>180 degrees; complete change</t>
-  </si>
-  <si>
-    <t>百悪</t>
-  </si>
-  <si>
-    <t>ひゃくあく</t>
-  </si>
-  <si>
-    <t>ten billion</t>
-  </si>
-  <si>
-    <t>円</t>
-  </si>
-  <si>
-    <t>まるい</t>
-  </si>
-  <si>
-    <t>まる</t>
-  </si>
-  <si>
-    <t>まど</t>
-  </si>
-  <si>
-    <t>まどか</t>
-  </si>
-  <si>
-    <t>まろやか</t>
-  </si>
-  <si>
-    <t>えん</t>
-  </si>
-  <si>
-    <t>Japanese monetary unit; circle</t>
-  </si>
-  <si>
-    <t>丸</t>
-  </si>
-  <si>
-    <t>circle; whole; full; complete</t>
-  </si>
-  <si>
-    <t>丸い</t>
-  </si>
-  <si>
-    <t>round; circular; spherical; calm</t>
-  </si>
-  <si>
-    <t>円満</t>
-  </si>
-  <si>
-    <t>えんまん</t>
-  </si>
-  <si>
-    <t>harmonious; peaceful; happy; amicable; smooth</t>
-  </si>
-  <si>
-    <t>円滑</t>
-  </si>
-  <si>
-    <t>えんかつ</t>
-  </si>
-  <si>
-    <t>smooth; undisturbed; uninterrupted; harmonious</t>
-  </si>
-  <si>
-    <t>円高</t>
-  </si>
-  <si>
-    <t>えんだか</t>
-  </si>
-  <si>
-    <t>appreciation of the yen; strong yen; strengthening of the yen; high-valued yen; exchange in favor of the yen (favour)</t>
-  </si>
-  <si>
-    <t>円安</t>
-  </si>
-  <si>
-    <t>えんやす</t>
-  </si>
-  <si>
-    <t>cheap yen</t>
-  </si>
-  <si>
-    <t>円形</t>
-  </si>
-  <si>
-    <t>えんけい</t>
-  </si>
-  <si>
-    <t>round shape; circular form</t>
-  </si>
-  <si>
-    <t>円相場</t>
-  </si>
-  <si>
-    <t>えんそうば</t>
-  </si>
-  <si>
-    <t>yen exchange rate</t>
-  </si>
-  <si>
-    <t>円卓</t>
-  </si>
-  <si>
-    <t>えんたく</t>
-  </si>
-  <si>
-    <t>round table</t>
-  </si>
-  <si>
-    <t>円周</t>
-  </si>
-  <si>
-    <t>えんしゅう</t>
-  </si>
-  <si>
-    <t>circumference</t>
-  </si>
-  <si>
-    <t>丸み</t>
-  </si>
-  <si>
-    <t>まるみ</t>
-  </si>
-  <si>
-    <t>roundness; mellowness; maturity</t>
-  </si>
-  <si>
-    <t>新</t>
-  </si>
-  <si>
-    <t>あたらしい</t>
-  </si>
-  <si>
-    <t>シン</t>
-  </si>
-  <si>
-    <t>新しい</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>新車</t>
-  </si>
-  <si>
-    <t>しんしゃ</t>
-  </si>
-  <si>
-    <t>a new car</t>
-  </si>
-  <si>
-    <t>新聞</t>
-  </si>
-  <si>
-    <t>しんぶん</t>
-  </si>
-  <si>
-    <t>a newspaper</t>
-  </si>
-  <si>
-    <t>新年</t>
-  </si>
-  <si>
-    <t>しんえん</t>
-  </si>
-  <si>
-    <t>a new year</t>
-  </si>
-  <si>
-    <t>古</t>
-  </si>
-  <si>
-    <t>ふるい</t>
-  </si>
-  <si>
-    <t>コ</t>
-  </si>
-  <si>
-    <t>古い</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>中古車</t>
-  </si>
-  <si>
-    <t>ちゅこしゃ</t>
-  </si>
-  <si>
-    <t>a second-hand car</t>
-  </si>
-  <si>
-    <t>古本</t>
-  </si>
-  <si>
-    <t>ふるほん</t>
-  </si>
-  <si>
-    <t>a used book</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>長</t>
-  </si>
-  <si>
-    <t>ながい</t>
-  </si>
-  <si>
-    <t>チュウ</t>
-  </si>
-  <si>
-    <t>長い</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>長野</t>
-  </si>
-  <si>
-    <t>ながの</t>
-  </si>
-  <si>
-    <t>nagano prefacture</t>
-  </si>
-  <si>
-    <t>長男</t>
-  </si>
-  <si>
-    <t>ちょうなん</t>
-  </si>
-  <si>
-    <t>the eldest son</t>
-  </si>
-  <si>
-    <t>学長</t>
-  </si>
-  <si>
-    <t>がくちょう</t>
-  </si>
-  <si>
-    <t>a president</t>
-  </si>
-  <si>
-    <t>短</t>
-  </si>
-  <si>
-    <t>みじかい</t>
-  </si>
-  <si>
-    <t>タン</t>
-  </si>
-  <si>
-    <t>短い</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>短時間</t>
-  </si>
-  <si>
-    <t>たんじかん</t>
-  </si>
-  <si>
-    <t>a short time</t>
-  </si>
-  <si>
-    <t>短大</t>
-  </si>
-  <si>
-    <t>たんだい</t>
-  </si>
-  <si>
-    <t>a junior college</t>
-  </si>
-  <si>
-    <t>たかい</t>
-  </si>
-  <si>
-    <t>コウ</t>
-  </si>
-  <si>
-    <t>高い</t>
-  </si>
-  <si>
-    <t>high; expensive</t>
-  </si>
-  <si>
-    <t>高橋</t>
-  </si>
-  <si>
-    <t>たかはし</t>
-  </si>
-  <si>
-    <t>Japanese name</t>
-  </si>
-  <si>
-    <t>高校</t>
-  </si>
-  <si>
-    <t>こうこう</t>
-  </si>
-  <si>
-    <t>a high school</t>
-  </si>
-  <si>
-    <t>高速</t>
-  </si>
-  <si>
-    <t>こうそく</t>
-  </si>
-  <si>
-    <t>high-speed</t>
-  </si>
-  <si>
-    <t>安</t>
-  </si>
-  <si>
-    <t>やすい</t>
-  </si>
-  <si>
-    <t>アン</t>
-  </si>
-  <si>
-    <t>安い</t>
-  </si>
-  <si>
-    <t>safe; cheap</t>
-  </si>
-  <si>
-    <t>安心する</t>
-  </si>
-  <si>
-    <t>あんしんする</t>
-  </si>
-  <si>
-    <t>to be relieved</t>
-  </si>
-  <si>
-    <t>安売り</t>
-  </si>
-  <si>
-    <t>やすうる</t>
-  </si>
-  <si>
-    <t>bargain sale</t>
-  </si>
-  <si>
-    <t>安全な</t>
-  </si>
-  <si>
-    <t>あんぜんな</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>ひくい</t>
-  </si>
-  <si>
-    <t>テイ</t>
-  </si>
-  <si>
-    <t>低い</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>低温</t>
-  </si>
-  <si>
-    <t>ていおん</t>
-  </si>
-  <si>
-    <t>a low temperature</t>
-  </si>
-  <si>
-    <t>低下する</t>
-  </si>
-  <si>
-    <t>ていかする</t>
-  </si>
-  <si>
-    <t>to fall; to go down</t>
-  </si>
-  <si>
-    <t>暗</t>
-  </si>
-  <si>
-    <t>くらい</t>
-  </si>
-  <si>
-    <t>Onymi</t>
-  </si>
-  <si>
-    <t>暗い</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>暗室</t>
-  </si>
-  <si>
-    <t>あんしつ</t>
-  </si>
-  <si>
-    <t>a dark room</t>
-  </si>
-  <si>
-    <t>多</t>
-  </si>
-  <si>
-    <t>おおい</t>
-  </si>
-  <si>
-    <t>タ</t>
-  </si>
-  <si>
-    <t>多い</t>
-  </si>
-  <si>
-    <t>many; much</t>
-  </si>
-  <si>
-    <t>多数</t>
-  </si>
-  <si>
-    <t>たすう</t>
-  </si>
-  <si>
-    <t>a large number</t>
-  </si>
-  <si>
-    <t>多少</t>
-  </si>
-  <si>
-    <t>たしょう</t>
-  </si>
-  <si>
-    <t>more / less</t>
-  </si>
-  <si>
-    <t>少</t>
-  </si>
-  <si>
-    <t>すくない</t>
-  </si>
-  <si>
-    <t>すこし</t>
-  </si>
-  <si>
-    <t>ショウ</t>
-  </si>
-  <si>
-    <t>少ない</t>
-  </si>
-  <si>
-    <t>few; little</t>
-  </si>
-  <si>
-    <t>少年</t>
-  </si>
-  <si>
-    <t>しょうねん</t>
-  </si>
-  <si>
-    <t>a boy</t>
-  </si>
-  <si>
-    <t>少し</t>
-  </si>
-  <si>
-    <t>a little; a few</t>
-  </si>
-  <si>
-    <t>少女</t>
-  </si>
-  <si>
-    <t>しょうじょ</t>
-  </si>
-  <si>
-    <t>a girl</t>
+    <t>Verbs</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>いく</t>
+  </si>
+  <si>
+    <t>おこなう</t>
+  </si>
+  <si>
+    <t>ギョウ</t>
+  </si>
+  <si>
+    <t>行く</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>旅行そる</t>
+  </si>
+  <si>
+    <t>りょこうそる</t>
+  </si>
+  <si>
+    <t>to travel</t>
+  </si>
+  <si>
+    <t>行う</t>
+  </si>
+  <si>
+    <t>to carry out</t>
+  </si>
+  <si>
+    <t>～行</t>
+  </si>
+  <si>
+    <t>～ぎょう</t>
+  </si>
+  <si>
+    <t>~ lines</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>くる</t>
+  </si>
+  <si>
+    <t>こない</t>
+  </si>
+  <si>
+    <t>きます</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>ライ</t>
+  </si>
+  <si>
+    <t>来る</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>来月</t>
+  </si>
+  <si>
+    <t>らいげつ</t>
+  </si>
+  <si>
+    <t>next month</t>
+  </si>
+  <si>
+    <t>来年</t>
+  </si>
+  <si>
+    <t>らいねん</t>
+  </si>
+  <si>
+    <t>next year</t>
+  </si>
+  <si>
+    <t>来日する</t>
+  </si>
+  <si>
+    <t>らいにちする</t>
+  </si>
+  <si>
+    <t>to visit Japan</t>
+  </si>
+  <si>
+    <t>来週</t>
+  </si>
+  <si>
+    <t>らいしゅう</t>
+  </si>
+  <si>
+    <t>next week</t>
+  </si>
+  <si>
+    <t>帰</t>
+  </si>
+  <si>
+    <t>かえる</t>
+  </si>
+  <si>
+    <t>ギ</t>
+  </si>
+  <si>
+    <t>帰る</t>
+  </si>
+  <si>
+    <t>to go; come back</t>
+  </si>
+  <si>
+    <t>帰国する</t>
+  </si>
+  <si>
+    <t>きこくする</t>
+  </si>
+  <si>
+    <t>to return to one's country</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>たべる</t>
+  </si>
+  <si>
+    <t>ショク</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>食事</t>
+  </si>
+  <si>
+    <t>しょくじ</t>
+  </si>
+  <si>
+    <t>a meal</t>
+  </si>
+  <si>
+    <t>食べ物</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>夕食</t>
+  </si>
+  <si>
+    <t>ゆうしょく</t>
+  </si>
+  <si>
+    <t>a dinner</t>
+  </si>
+  <si>
+    <t>朝食</t>
+  </si>
+  <si>
+    <t>ちょうしょく</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>昼食</t>
+  </si>
+  <si>
+    <t>ちゅうしょく</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>夜食</t>
+  </si>
+  <si>
+    <t>やしょく</t>
+  </si>
+  <si>
+    <t>a midnight meal</t>
+  </si>
+  <si>
+    <t>supper; dinner</t>
+  </si>
+  <si>
+    <t>飲</t>
+  </si>
+  <si>
+    <t>のむ</t>
+  </si>
+  <si>
+    <t>イン</t>
+  </si>
+  <si>
+    <t>飲む</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>飲酒</t>
+  </si>
+  <si>
+    <t>いんしゅ</t>
+  </si>
+  <si>
+    <t>drinking</t>
+  </si>
+  <si>
+    <t>飲み物</t>
+  </si>
+  <si>
+    <t>のみもの</t>
+  </si>
+  <si>
+    <t>a beverage</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>みる</t>
+  </si>
+  <si>
+    <t>みえる</t>
+  </si>
+  <si>
+    <t>みせる</t>
+  </si>
+  <si>
+    <t>ケン</t>
+  </si>
+  <si>
+    <t>見る</t>
+  </si>
+  <si>
+    <t>to look at; to see</t>
+  </si>
+  <si>
+    <t>見せる</t>
+  </si>
+  <si>
+    <t>to show</t>
+  </si>
+  <si>
+    <t>意見</t>
+  </si>
+  <si>
+    <t>いけん</t>
+  </si>
+  <si>
+    <t>an option</t>
+  </si>
+  <si>
+    <t>見物する</t>
+  </si>
+  <si>
+    <t>けんぶつする</t>
+  </si>
+  <si>
+    <t>to do sightseeing</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>きこえる</t>
+  </si>
+  <si>
+    <t>ブン</t>
+  </si>
+  <si>
+    <t>聞く</t>
+  </si>
+  <si>
+    <t>to hear; to listen to</t>
+  </si>
+  <si>
+    <t>聞こえる</t>
+  </si>
+  <si>
+    <t>can be heard</t>
+  </si>
+  <si>
+    <t>読</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>ドク</t>
+  </si>
+  <si>
+    <t>読む</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>読書</t>
+  </si>
+  <si>
+    <t>どくしょ</t>
+  </si>
+  <si>
+    <t>reading books</t>
+  </si>
+  <si>
+    <t>読み</t>
+  </si>
+  <si>
+    <t>よみ</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>読者</t>
+  </si>
+  <si>
+    <t>どくしゃ</t>
+  </si>
+  <si>
+    <t>a reader</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>ショ</t>
+  </si>
+  <si>
+    <t>書く</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>書道</t>
+  </si>
+  <si>
+    <t>しょどう</t>
+  </si>
+  <si>
+    <t>calligraphy</t>
+  </si>
+  <si>
+    <t>書店</t>
+  </si>
+  <si>
+    <t>しょてん</t>
+  </si>
+  <si>
+    <t>a book shop</t>
+  </si>
+  <si>
+    <t>図書</t>
+  </si>
+  <si>
+    <t>としょ</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <t>としょかん</t>
+  </si>
+  <si>
+    <t>a library</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>はなす</t>
+  </si>
+  <si>
+    <t>はなし</t>
+  </si>
+  <si>
+    <t>ワ</t>
+  </si>
+  <si>
+    <t>話す</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>会話</t>
+  </si>
+  <si>
+    <t>かいわ</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>a story; a talk</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>でんわ</t>
+  </si>
+  <si>
+    <t>a telephone</t>
+  </si>
+  <si>
+    <t>買</t>
+  </si>
+  <si>
+    <t>かう</t>
+  </si>
+  <si>
+    <t>バイ</t>
+  </si>
+  <si>
+    <t>買う</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>買い物</t>
+  </si>
+  <si>
+    <t>かいもの</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>買物</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>おしえる</t>
+  </si>
+  <si>
+    <t>キョウ</t>
+  </si>
+  <si>
+    <t>教える</t>
+  </si>
+  <si>
+    <t>to teach</t>
+  </si>
+  <si>
+    <t>教会</t>
+  </si>
+  <si>
+    <t>きょうかい</t>
+  </si>
+  <si>
+    <t>a church</t>
+  </si>
+  <si>
+    <t>教育する</t>
+  </si>
+  <si>
+    <t>きょういくする</t>
+  </si>
+  <si>
+    <t>to educate</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>きょうしつ</t>
+  </si>
+  <si>
+    <t>a classroom</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,14 +1621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="48"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1125,12 +1628,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1145,15 +1654,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1436,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A340" sqref="A340:XFD340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1447,8 +1959,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1587,7 +2099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +2111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +2163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1663,7 +2175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2664,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>156</v>
       </c>
@@ -2163,7 +2675,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>57</v>
       </c>
@@ -2174,7 +2686,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>158</v>
       </c>
@@ -2185,7 +2697,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="102" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A102" s="4" t="s">
         <v>161</v>
       </c>
@@ -2194,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2728,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>166</v>
       </c>
@@ -2227,7 +2739,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="109" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A109" s="4" t="s">
         <v>169</v>
       </c>
@@ -2239,7 +2751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>4</v>
       </c>
@@ -2250,14 +2762,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C112" t="s">
         <v>173</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>100</v>
       </c>
     </row>
@@ -2268,7 +2780,7 @@
       <c r="C113" t="s">
         <v>175</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2279,7 +2791,7 @@
       <c r="C114" t="s">
         <v>178</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2290,7 +2802,7 @@
       <c r="C115" t="s">
         <v>181</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2301,65 +2813,65 @@
       <c r="C116" t="s">
         <v>184</v>
       </c>
-      <c r="E116" t="s">
-        <v>185</v>
+      <c r="F116" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" t="s">
         <v>186</v>
       </c>
-      <c r="C117" t="s">
+      <c r="F117" t="s">
         <v>187</v>
-      </c>
-      <c r="E117" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" t="s">
         <v>189</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
         <v>190</v>
-      </c>
-      <c r="F118" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" t="s">
         <v>192</v>
       </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
         <v>193</v>
-      </c>
-      <c r="E119" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A122" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" t="s">
         <v>2</v>
       </c>
       <c r="D122" t="s">
+        <v>195</v>
+      </c>
+      <c r="E122" t="s">
         <v>196</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>197</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>198</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>199</v>
-      </c>
-      <c r="H122" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -2367,758 +2879,1617 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C125" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" t="s">
         <v>201</v>
-      </c>
-      <c r="D125" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" t="s">
         <v>203</v>
-      </c>
-      <c r="C126" t="s">
-        <v>197</v>
-      </c>
-      <c r="D126" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" t="s">
+        <v>195</v>
+      </c>
+      <c r="D127" t="s">
         <v>205</v>
-      </c>
-      <c r="C127" t="s">
-        <v>196</v>
-      </c>
-      <c r="D127" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" t="s">
         <v>207</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>208</v>
-      </c>
-      <c r="E128" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" t="s">
         <v>210</v>
       </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
         <v>211</v>
-      </c>
-      <c r="E129" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" t="s">
         <v>213</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E130" t="s">
         <v>214</v>
-      </c>
-      <c r="E130" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" t="s">
         <v>216</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>217</v>
-      </c>
-      <c r="E131" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132" t="s">
         <v>219</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
         <v>220</v>
-      </c>
-      <c r="E132" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" t="s">
         <v>222</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>223</v>
-      </c>
-      <c r="E133" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C134" t="s">
         <v>225</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>226</v>
-      </c>
-      <c r="E134" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" t="s">
         <v>228</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>229</v>
-      </c>
-      <c r="E135" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" t="s">
         <v>231</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>232</v>
       </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="139" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A142" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A139" s="4" t="s">
+      <c r="B142" s="4"/>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
         <v>234</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C140" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C142" t="s">
-        <v>235</v>
-      </c>
-      <c r="E142" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C143" t="s">
-        <v>240</v>
-      </c>
-      <c r="E143" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C144" t="s">
-        <v>243</v>
-      </c>
-      <c r="E144" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C145" t="s">
+        <v>234</v>
+      </c>
+      <c r="E145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" t="s">
+        <v>239</v>
+      </c>
+      <c r="E146" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C147" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C148" t="s">
         <v>245</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E148" t="s">
         <v>246</v>
       </c>
-      <c r="E145" t="s">
+    </row>
+    <row r="151" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A151" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A148" s="4" t="s">
+      <c r="B151" s="4"/>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
         <v>248</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" t="s">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C154" t="s">
+        <v>248</v>
+      </c>
+      <c r="E154" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C155" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" t="s">
+        <v>256</v>
+      </c>
+      <c r="E156" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A159" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" t="s">
         <v>2</v>
       </c>
-      <c r="D148" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C149" t="s">
+      <c r="D159" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
         <v>4</v>
       </c>
-      <c r="D149" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C151" t="s">
-        <v>249</v>
-      </c>
-      <c r="E151" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C152" t="s">
-        <v>254</v>
-      </c>
-      <c r="E152" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153" t="s">
-        <v>257</v>
-      </c>
-      <c r="E153" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A156" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="C156" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="D160" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C157" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C159" t="s">
-        <v>261</v>
-      </c>
-      <c r="E159" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C160" t="s">
-        <v>266</v>
-      </c>
-      <c r="E160" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C161" t="s">
-        <v>269</v>
-      </c>
-      <c r="E161" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C162" t="s">
+        <v>260</v>
+      </c>
+      <c r="E162" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C163" t="s">
+        <v>265</v>
+      </c>
+      <c r="E163" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C164" t="s">
+        <v>268</v>
+      </c>
+      <c r="E164" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C165" t="s">
         <v>271</v>
       </c>
-      <c r="C162" t="s">
+      <c r="E165" t="s">
         <v>272</v>
       </c>
-      <c r="E162" t="s">
+    </row>
+    <row r="168" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A168" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A165" s="4" t="s">
+      <c r="B168" s="4"/>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
         <v>274</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" t="s">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C171" t="s">
+        <v>274</v>
+      </c>
+      <c r="E171" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" t="s">
+        <v>279</v>
+      </c>
+      <c r="E172" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C173" t="s">
+        <v>282</v>
+      </c>
+      <c r="E173" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A176" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" t="s">
         <v>2</v>
       </c>
-      <c r="D165" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C166" t="s">
+      <c r="D176" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
         <v>4</v>
       </c>
-      <c r="D166" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C168" t="s">
-        <v>275</v>
-      </c>
-      <c r="E168" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C169" t="s">
-        <v>280</v>
-      </c>
-      <c r="E169" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C170" t="s">
-        <v>283</v>
-      </c>
-      <c r="E170" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A173" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="C173" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="D177" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C174" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C176" t="s">
-        <v>285</v>
-      </c>
-      <c r="E176" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C177" t="s">
-        <v>290</v>
-      </c>
-      <c r="E177" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C178" t="s">
-        <v>293</v>
-      </c>
-      <c r="E178" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C179" t="s">
+        <v>284</v>
+      </c>
+      <c r="E179" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" t="s">
+        <v>289</v>
+      </c>
+      <c r="E180" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C181" t="s">
+        <v>292</v>
+      </c>
+      <c r="E181" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" t="s">
         <v>295</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E182" t="s">
         <v>296</v>
       </c>
-      <c r="E179" t="s">
+    </row>
+    <row r="185" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A185" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A182" s="4" t="s">
+      <c r="B185" s="4"/>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
         <v>298</v>
       </c>
-      <c r="B182" s="4"/>
-      <c r="C182" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C183" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C185" t="s">
-        <v>299</v>
-      </c>
-      <c r="E185" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C186" t="s">
-        <v>304</v>
-      </c>
-      <c r="E186" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C187" t="s">
-        <v>307</v>
-      </c>
-      <c r="E187" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C188" t="s">
+        <v>298</v>
+      </c>
+      <c r="E188" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C189" t="s">
+        <v>303</v>
+      </c>
+      <c r="E189" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C190" t="s">
+        <v>306</v>
+      </c>
+      <c r="E190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C191" t="s">
         <v>309</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E191" t="s">
         <v>310</v>
       </c>
-      <c r="E188" t="s">
+    </row>
+    <row r="194" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A194" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A191" s="4" t="s">
+      <c r="B194" s="4"/>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
         <v>312</v>
       </c>
-      <c r="B191" s="4"/>
-      <c r="C191" t="s">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C197" t="s">
+        <v>312</v>
+      </c>
+      <c r="E197" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C198" t="s">
+        <v>317</v>
+      </c>
+      <c r="E198" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C199" t="s">
+        <v>320</v>
+      </c>
+      <c r="E199" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A202" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" t="s">
         <v>2</v>
       </c>
-      <c r="D191" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C192" t="s">
+      <c r="D202" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C203" t="s">
+        <v>324</v>
+      </c>
+      <c r="D203" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C205" t="s">
+        <v>323</v>
+      </c>
+      <c r="E205" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" t="s">
+        <v>328</v>
+      </c>
+      <c r="E206" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A209" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B209" s="4"/>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
         <v>4</v>
       </c>
-      <c r="D192" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C194" t="s">
-        <v>313</v>
-      </c>
-      <c r="E194" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C195" t="s">
-        <v>318</v>
-      </c>
-      <c r="E195" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C196" t="s">
-        <v>321</v>
-      </c>
-      <c r="E196" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A199" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199" t="s">
+      <c r="D210" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C212" t="s">
+        <v>331</v>
+      </c>
+      <c r="D212" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C213" t="s">
+        <v>336</v>
+      </c>
+      <c r="D213" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C214" t="s">
+        <v>339</v>
+      </c>
+      <c r="D214" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A217" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B217" s="4"/>
+      <c r="C217" t="s">
         <v>2</v>
       </c>
-      <c r="D199" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C200" t="s">
-        <v>325</v>
-      </c>
-      <c r="D200" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C202" t="s">
-        <v>324</v>
-      </c>
-      <c r="E202" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C203" t="s">
-        <v>329</v>
-      </c>
-      <c r="E203" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A206" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B206" s="4"/>
-      <c r="C206" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C207" t="s">
+      <c r="D217" t="s">
+        <v>342</v>
+      </c>
+      <c r="F217" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C218" t="s">
         <v>4</v>
       </c>
-      <c r="D207" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C209" t="s">
-        <v>332</v>
-      </c>
-      <c r="D209" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C210" t="s">
-        <v>337</v>
-      </c>
-      <c r="D210" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C211" t="s">
-        <v>340</v>
-      </c>
-      <c r="D211" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A214" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B214" s="4"/>
-      <c r="C214" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" t="s">
-        <v>343</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="D218" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C215" t="s">
-        <v>4</v>
-      </c>
-      <c r="D215" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C217" t="s">
-        <v>343</v>
-      </c>
-      <c r="E217" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C218" t="s">
-        <v>349</v>
-      </c>
-      <c r="E218" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C219" t="s">
-        <v>344</v>
-      </c>
-      <c r="E219" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E220" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C221" t="s">
+        <v>348</v>
+      </c>
+      <c r="E221" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C222" t="s">
+        <v>343</v>
+      </c>
+      <c r="E222" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C223" t="s">
+        <v>353</v>
+      </c>
+      <c r="E223" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C224" t="s">
         <v>339</v>
       </c>
-      <c r="C221" t="s">
+      <c r="E224" t="s">
         <v>340</v>
       </c>
-      <c r="E221" t="s">
-        <v>341</v>
+    </row>
+    <row r="227" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A230" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>359</v>
+      </c>
+      <c r="E230" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>285</v>
+      </c>
+      <c r="E231" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C233" t="s">
+        <v>359</v>
+      </c>
+      <c r="E233" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C234" t="s">
+        <v>365</v>
+      </c>
+      <c r="E234" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C235" t="s">
+        <v>360</v>
+      </c>
+      <c r="E235" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C236" t="s">
+        <v>370</v>
+      </c>
+      <c r="E236" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A239" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B239" s="4"/>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>373</v>
+      </c>
+      <c r="E239" t="s">
+        <v>374</v>
+      </c>
+      <c r="F239" t="s">
+        <v>375</v>
+      </c>
+      <c r="G239" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C242" t="s">
+        <v>373</v>
+      </c>
+      <c r="E242" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C243" t="s">
+        <v>390</v>
+      </c>
+      <c r="E243" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C244" t="s">
+        <v>381</v>
+      </c>
+      <c r="E244" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C245" t="s">
+        <v>384</v>
+      </c>
+      <c r="E245" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C246" t="s">
+        <v>387</v>
+      </c>
+      <c r="E246" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A249" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B249" s="4"/>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C252" t="s">
+        <v>393</v>
+      </c>
+      <c r="E252" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C253" t="s">
+        <v>398</v>
+      </c>
+      <c r="E253" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A256" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B256" s="4"/>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C259" t="s">
+        <v>401</v>
+      </c>
+      <c r="E259" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C260" t="s">
+        <v>406</v>
+      </c>
+      <c r="E260" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C261" t="s">
+        <v>409</v>
+      </c>
+      <c r="E261" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C262" t="s">
+        <v>412</v>
+      </c>
+      <c r="E262" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C263" t="s">
+        <v>415</v>
+      </c>
+      <c r="E263" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C264" t="s">
+        <v>418</v>
+      </c>
+      <c r="E264" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C265" t="s">
+        <v>421</v>
+      </c>
+      <c r="E265" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C266" t="s">
+        <v>412</v>
+      </c>
+      <c r="E266" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A269" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C272" t="s">
+        <v>425</v>
+      </c>
+      <c r="E272" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C273" t="s">
+        <v>430</v>
+      </c>
+      <c r="E273" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C274" t="s">
+        <v>433</v>
+      </c>
+      <c r="E274" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A277" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B277" s="4"/>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>436</v>
+      </c>
+      <c r="E277" t="s">
+        <v>437</v>
+      </c>
+      <c r="F277" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C280" t="s">
+        <v>436</v>
+      </c>
+      <c r="E280" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C281" t="s">
+        <v>438</v>
+      </c>
+      <c r="E281" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C282" t="s">
+        <v>445</v>
+      </c>
+      <c r="E282" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C283" t="s">
+        <v>448</v>
+      </c>
+      <c r="E283" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A286" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>451</v>
+      </c>
+      <c r="E286" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C289" t="s">
+        <v>451</v>
+      </c>
+      <c r="E289" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C290" t="s">
+        <v>242</v>
+      </c>
+      <c r="E290" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C291" t="s">
+        <v>452</v>
+      </c>
+      <c r="E291" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A294" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B294" s="4"/>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C297" t="s">
+        <v>459</v>
+      </c>
+      <c r="E297" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C298" t="s">
+        <v>464</v>
+      </c>
+      <c r="E298" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C299" t="s">
+        <v>467</v>
+      </c>
+      <c r="E299" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C300" t="s">
+        <v>470</v>
+      </c>
+      <c r="E300" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A303" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B303" s="4"/>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C306" t="s">
+        <v>473</v>
+      </c>
+      <c r="E306" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C307" t="s">
+        <v>478</v>
+      </c>
+      <c r="E307" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C308" t="s">
+        <v>481</v>
+      </c>
+      <c r="E308" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C309" t="s">
+        <v>464</v>
+      </c>
+      <c r="E309" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C310" t="s">
+        <v>484</v>
+      </c>
+      <c r="E310" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C311" t="s">
+        <v>487</v>
+      </c>
+      <c r="E311" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A314" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B314" s="4"/>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>490</v>
+      </c>
+      <c r="E314" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C317" t="s">
+        <v>490</v>
+      </c>
+      <c r="E317" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C318" t="s">
+        <v>496</v>
+      </c>
+      <c r="E318" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C319" t="s">
+        <v>491</v>
+      </c>
+      <c r="E319" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C320" t="s">
+        <v>500</v>
+      </c>
+      <c r="E320" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A323" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B323" s="4"/>
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C326" t="s">
+        <v>503</v>
+      </c>
+      <c r="E326" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C327" t="s">
+        <v>508</v>
+      </c>
+      <c r="E327" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C328" t="s">
+        <v>508</v>
+      </c>
+      <c r="E328" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A331" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B331" s="4"/>
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C334" t="s">
+        <v>512</v>
+      </c>
+      <c r="E334" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C335" t="s">
+        <v>517</v>
+      </c>
+      <c r="E335" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C336" t="s">
+        <v>520</v>
+      </c>
+      <c r="E336" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C337" t="s">
+        <v>523</v>
+      </c>
+      <c r="E337" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A36:B36"/>
+  <mergeCells count="40">
+    <mergeCell ref="A340:XFD340"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A331:B331"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A139:XFD139"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A227:XFD227"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A286:B286"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>